--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BE528D-CE3B-E74C-9C31-02304B9751A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D470B-978D-1D45-84EA-EF2531A31EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="797">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2382,13 +2383,58 @@
   </si>
   <si>
     <t>stm: An R Package for Structural Topic Models</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Visual Representations for Topic Understanding and Their Effects on Manually Generated Topic Labels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Topic Representations for Exploring Document Collections </t>
+  </si>
+  <si>
+    <t xml:space="preserve">United We Stand: Using Multiple Strategies for Topic Labeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Topic Labeling with Domain-Specific Knowledge Base: An Analysis of UK House of Commons Speeches 1935–2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Generation of Topic Labels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BART-TL: Weakly-Supervised Topic Label Generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian Text Classification and Summarization via A Class-Specified Topic Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Search of Coherence and Consensus: Measuring the Interpretability of Statistical Topics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using structural topic modeling to identify latent topics and trends in aviation incident reports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Ontology-Based Labeling of Influential Topics Using Topic Network Analysis </t>
+  </si>
+  <si>
+    <t>Global Surveillance of COVID-19 by mining news media using a multi-source dynamic embedded topic model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchored Correlation Explanation: Topic Modeling with Minimal Domain Knowledge </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2396,13 +2442,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2417,8 +2490,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2735,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF4386-DCD1-C147-B151-A67CD8E190EB}">
   <dimension ref="A1:B782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -9007,4 +9084,100 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="103.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D470B-978D-1D45-84EA-EF2531A31EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A06AD71-BFE0-2442-8B2F-6B7474269866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="813">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Topic-Aware Deep Compositional Models for Sentence Classification</t>
   </si>
   <si>
-    <t>Learning Topic-Sensitive Word Representations</t>
-  </si>
-  <si>
     <t>BERTScore: Evaluating Text Generation with BERT</t>
   </si>
   <si>
@@ -2428,6 +2425,57 @@
   </si>
   <si>
     <t xml:space="preserve">Anchored Correlation Explanation: Topic Modeling with Minimal Domain Knowledge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free associations of citizens and scientists with economic and green growth: A computational-linguistics analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation System for Knowledge Acquisition in MOOCs Ecosystems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing the Boundaries of Taste: Culture, Valuation, and Computational Social Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGITCLASS: Keyword-Driven Hierarchical Classification of GitHub Repositories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientific Evolutionary Pathways: Identifying and Visualizing Relationships for Scientific Topics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labeling Topics with Images using a Neural Network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Modeling over Short Texts by Incorporating Word Embeddings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distant Supervision for Topic Classification of Tweets in Curated Streams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discriminative Topic Mining via Category-Name Guided Text Embedding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-Text or Abstract? Examining Topic Coherence Scores Using Latent Dirichlet Allocation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Models for Documents with Metadata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotating and detecting topics in social media forum and modelling the annotation to derive directions‐a case study </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporating Wikipedia concepts and categories as prior knowledge into topic models </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document-based topic coherence measures for news media text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic modeling and sentiment analysis of global climate change tweets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detecting and predicting the topic change of Knowledge-based Systems: A topic-based bibliometric analysis from 1991 to 2016 </t>
   </si>
 </sst>
 </file>
@@ -2458,7 +2506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2477,6 +2525,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2490,12 +2544,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2810,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF4386-DCD1-C147-B151-A67CD8E190EB}">
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="I424" sqref="I424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2872,7 +2927,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2888,7 +2943,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2904,7 +2959,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2920,7 +2975,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2928,7 +2983,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2936,7 +2991,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2944,7 +2999,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2952,7 +3007,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2960,7 +3015,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2968,7 +3023,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2976,7 +3031,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2984,7 +3039,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2992,7 +3047,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -3000,7 +3055,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3008,7 +3063,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3016,7 +3071,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3024,7 +3079,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -3032,7 +3087,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -3040,7 +3095,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3048,7 +3103,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3056,7 +3111,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3064,7 +3119,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3072,7 +3127,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3080,7 +3135,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -3088,7 +3143,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3104,7 +3159,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3112,7 +3167,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3120,7 +3175,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3136,7 +3191,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3152,7 +3207,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3160,7 +3215,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3176,7 +3231,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3184,7 +3239,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3192,7 +3247,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3200,7 +3255,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -3208,7 +3263,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3216,7 +3271,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -3232,7 +3287,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -3248,7 +3303,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3256,7 +3311,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3264,7 +3319,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -3272,7 +3327,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -3280,7 +3335,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3288,7 +3343,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3296,7 +3351,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3304,7 +3359,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3312,7 +3367,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3320,7 +3375,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3328,7 +3383,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3336,7 +3391,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3344,7 +3399,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3352,7 +3407,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3368,7 +3423,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3384,7 +3439,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3400,7 +3455,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3408,7 +3463,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3432,7 +3487,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3440,7 +3495,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3448,7 +3503,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3456,7 +3511,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3464,7 +3519,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3472,7 +3527,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3480,7 +3535,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3488,7 +3543,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3496,7 +3551,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3504,7 +3559,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3512,7 +3567,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3520,7 +3575,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3528,7 +3583,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3536,7 +3591,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3544,7 +3599,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3552,7 +3607,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3560,7 +3615,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3568,7 +3623,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3576,7 +3631,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3584,7 +3639,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3592,7 +3647,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3600,7 +3655,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3608,7 +3663,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3616,7 +3671,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3624,7 +3679,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3632,7 +3687,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3640,7 +3695,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3648,7 +3703,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3656,7 +3711,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3664,7 +3719,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3672,7 +3727,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3680,7 +3735,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3688,7 +3743,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3696,7 +3751,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3704,7 +3759,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3712,7 +3767,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3720,7 +3775,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3728,7 +3783,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3736,7 +3791,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3744,7 +3799,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3752,7 +3807,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3760,7 +3815,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3776,7 +3831,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3784,7 +3839,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3792,7 +3847,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3800,7 +3855,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3808,7 +3863,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3816,7 +3871,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3824,7 +3879,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3832,7 +3887,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3840,7 +3895,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3856,7 +3911,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3864,7 +3919,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3872,7 +3927,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3880,7 +3935,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3888,7 +3943,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3896,7 +3951,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -3904,7 +3959,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -3912,7 +3967,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3920,7 +3975,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3928,7 +3983,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3936,7 +3991,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3944,7 +3999,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3952,7 +4007,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3960,7 +4015,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3968,7 +4023,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3976,7 +4031,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -3984,7 +4039,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -3992,7 +4047,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4000,7 +4055,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4008,7 +4063,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4016,7 +4071,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4024,7 +4079,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4040,7 +4095,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4048,7 +4103,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4056,7 +4111,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4064,7 +4119,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4072,7 +4127,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4080,7 +4135,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4104,7 +4159,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4120,7 +4175,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4128,7 +4183,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4136,7 +4191,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4144,7 +4199,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4152,7 +4207,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4160,7 +4215,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4168,7 +4223,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4192,7 +4247,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4200,7 +4255,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4208,7 +4263,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4216,7 +4271,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4224,7 +4279,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4232,7 +4287,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4240,7 +4295,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4248,7 +4303,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4256,7 +4311,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -4264,7 +4319,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4272,7 +4327,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4280,7 +4335,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4288,7 +4343,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4296,7 +4351,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4304,7 +4359,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4312,7 +4367,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4320,7 +4375,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4328,7 +4383,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4336,7 +4391,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4344,7 +4399,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4352,7 +4407,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4360,7 +4415,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4376,7 +4431,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4384,7 +4439,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4392,7 +4447,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4408,7 +4463,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4416,7 +4471,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4424,7 +4479,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4440,7 +4495,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4448,7 +4503,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4456,7 +4511,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4472,7 +4527,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4480,7 +4535,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4488,7 +4543,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4496,7 +4551,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -4504,7 +4559,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4512,7 +4567,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -4528,7 +4583,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -4536,7 +4591,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4544,7 +4599,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4552,7 +4607,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -4568,7 +4623,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -4576,7 +4631,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -4584,7 +4639,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -4592,7 +4647,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -4600,7 +4655,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -4616,7 +4671,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -4632,7 +4687,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4664,7 +4719,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -4680,7 +4735,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4688,7 +4743,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -4696,7 +4751,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -4704,7 +4759,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4712,7 +4767,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -4728,7 +4783,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -4736,7 +4791,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4776,7 +4831,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -4792,7 +4847,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -4800,7 +4855,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4808,7 +4863,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -4824,7 +4879,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -4840,7 +4895,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -4864,7 +4919,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -4872,7 +4927,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -4880,7 +4935,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -4888,7 +4943,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -4904,7 +4959,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -4920,7 +4975,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -4928,7 +4983,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -4936,7 +4991,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -4944,7 +4999,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -4952,7 +5007,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -4960,7 +5015,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -4968,7 +5023,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -4976,7 +5031,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -4992,7 +5047,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5000,7 +5055,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5008,7 +5063,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -5024,7 +5079,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -5032,7 +5087,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -5040,7 +5095,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5048,7 +5103,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5056,7 +5111,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5072,7 +5127,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5080,7 +5135,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5088,7 +5143,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -5096,7 +5151,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -5104,7 +5159,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -5120,7 +5175,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -5128,7 +5183,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -5136,7 +5191,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5144,7 +5199,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5152,7 +5207,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5160,7 +5215,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -5176,7 +5231,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5184,7 +5239,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -5192,7 +5247,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5208,7 +5263,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -5224,7 +5279,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5232,7 +5287,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5240,7 +5295,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -5248,7 +5303,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -5256,7 +5311,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -5264,7 +5319,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -5272,7 +5327,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5280,7 +5335,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -5288,7 +5343,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -5296,7 +5351,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5304,7 +5359,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -5312,7 +5367,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -5320,7 +5375,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5328,7 +5383,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5336,7 +5391,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -5344,7 +5399,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -5352,7 +5407,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -5360,7 +5415,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -5368,7 +5423,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -5384,7 +5439,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -5392,7 +5447,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -5400,7 +5455,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -5408,7 +5463,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5416,7 +5471,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -5432,7 +5487,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -5440,7 +5495,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5448,7 +5503,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -5456,7 +5511,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -5472,7 +5527,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -5488,7 +5543,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -5496,7 +5551,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -5504,7 +5559,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -5512,7 +5567,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -5528,7 +5583,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -5544,7 +5599,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -5552,7 +5607,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -5560,7 +5615,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -5568,7 +5623,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -5576,7 +5631,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -5584,7 +5639,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -5592,7 +5647,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -5600,7 +5655,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -5608,7 +5663,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -5616,7 +5671,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -5624,7 +5679,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -5632,7 +5687,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -5640,7 +5695,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -5648,7 +5703,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -5656,7 +5711,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -5664,7 +5719,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -5672,7 +5727,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -5688,7 +5743,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -5696,7 +5751,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -5712,7 +5767,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -5720,7 +5775,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -5728,7 +5783,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -5736,7 +5791,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -5744,7 +5799,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -5752,7 +5807,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -5760,7 +5815,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -5768,7 +5823,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -5776,7 +5831,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -5784,7 +5839,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -5792,7 +5847,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -5800,7 +5855,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -5808,7 +5863,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -5816,7 +5871,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -5824,7 +5879,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -5832,7 +5887,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -5840,7 +5895,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -5856,7 +5911,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -5880,7 +5935,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -5888,7 +5943,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -5904,7 +5959,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -5912,7 +5967,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -5920,7 +5975,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -5928,7 +5983,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -5936,7 +5991,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -5944,7 +5999,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -5952,7 +6007,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -5960,7 +6015,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -5968,7 +6023,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -5976,7 +6031,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -5984,7 +6039,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -5992,7 +6047,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6000,7 +6055,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -6008,7 +6063,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -6016,7 +6071,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -6040,7 +6095,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -6048,7 +6103,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -6056,7 +6111,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -6064,7 +6119,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -6072,7 +6127,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6080,7 +6135,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6096,7 +6151,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6104,7 +6159,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -6112,7 +6167,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -6120,7 +6175,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -6128,7 +6183,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -6136,7 +6191,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -6144,7 +6199,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -6152,7 +6207,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -6160,7 +6215,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -6168,7 +6223,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -6176,7 +6231,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -6184,7 +6239,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -6192,7 +6247,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6200,7 +6255,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -6216,7 +6271,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -6232,7 +6287,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -6240,7 +6295,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -6248,7 +6303,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -6256,7 +6311,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>572</v>
+        <v>687</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -6264,7 +6319,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>688</v>
+        <v>180</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -6272,7 +6327,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -6280,7 +6335,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>54</v>
+        <v>463</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -6288,7 +6343,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>464</v>
+        <v>703</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -6296,7 +6351,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>704</v>
+        <v>407</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -6304,7 +6359,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -6312,7 +6367,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>410</v>
+        <v>507</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -6320,7 +6375,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -6328,7 +6383,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>475</v>
+        <v>336</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -6336,7 +6391,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -6344,7 +6399,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>532</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -6352,7 +6407,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>533</v>
+        <v>413</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -6360,7 +6415,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -6368,7 +6423,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -6376,7 +6431,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -6384,7 +6439,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -6392,7 +6447,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -6400,7 +6455,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>335</v>
+        <v>710</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -6408,7 +6463,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>711</v>
+        <v>626</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -6416,7 +6471,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>627</v>
+        <v>208</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -6424,7 +6479,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>209</v>
+        <v>283</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -6432,7 +6487,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -6440,7 +6495,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>98</v>
+        <v>749</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -6448,7 +6503,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -6456,7 +6511,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -6464,7 +6519,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>503</v>
+        <v>324</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -6472,7 +6527,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>325</v>
+        <v>754</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -6480,7 +6535,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>755</v>
+        <v>624</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -6488,7 +6543,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -6496,7 +6551,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>667</v>
+        <v>175</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -6504,7 +6559,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>176</v>
+        <v>361</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -6512,7 +6567,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>362</v>
+        <v>735</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -6520,7 +6575,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>736</v>
+        <v>464</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -6528,7 +6583,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -6536,7 +6591,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -6544,7 +6599,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>421</v>
+        <v>146</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -6552,7 +6607,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -6560,7 +6615,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>151</v>
+        <v>454</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -6568,7 +6623,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -6576,7 +6631,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>459</v>
+        <v>743</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -6584,7 +6639,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>744</v>
+        <v>159</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -6592,7 +6647,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -6600,7 +6655,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -6608,7 +6663,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -6616,7 +6671,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>507</v>
+        <v>74</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -6624,7 +6679,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -6632,7 +6687,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -6640,7 +6695,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -6648,7 +6703,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -6656,7 +6711,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -6664,7 +6719,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -6672,7 +6727,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>581</v>
+        <v>688</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -6680,7 +6735,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>689</v>
+        <v>380</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -6688,7 +6743,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -6696,7 +6751,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -6704,7 +6759,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>20</v>
+        <v>747</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -6712,7 +6767,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>748</v>
+        <v>197</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -6720,7 +6775,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -6728,7 +6783,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>174</v>
+        <v>514</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -6736,7 +6791,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -6744,7 +6799,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>419</v>
+        <v>520</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -6752,7 +6807,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>521</v>
+        <v>183</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -6760,7 +6815,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -6768,7 +6823,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -6776,7 +6831,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>61</v>
+        <v>778</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -6784,7 +6839,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>779</v>
+        <v>450</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -6792,7 +6847,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -6800,7 +6855,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>453</v>
+        <v>188</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -6808,7 +6863,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -6816,7 +6871,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>60</v>
+        <v>486</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -6824,7 +6879,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>487</v>
+        <v>382</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -6832,7 +6887,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -6840,7 +6895,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>361</v>
+        <v>461</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -6848,7 +6903,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>462</v>
+        <v>684</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -6856,7 +6911,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -6864,7 +6919,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>687</v>
+        <v>134</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -6872,7 +6927,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>135</v>
+        <v>729</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -6880,7 +6935,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>730</v>
+        <v>551</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -6888,7 +6943,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>552</v>
+        <v>194</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -6896,7 +6951,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -6904,7 +6959,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -6912,7 +6967,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>197</v>
+        <v>451</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -6920,7 +6975,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -6928,7 +6983,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>430</v>
+        <v>683</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -6936,7 +6991,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>684</v>
+        <v>542</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -6944,7 +6999,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>543</v>
+        <v>64</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -6952,7 +7007,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -6960,7 +7015,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>62</v>
+        <v>767</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -6968,7 +7023,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>768</v>
+        <v>323</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -6976,7 +7031,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>324</v>
+        <v>617</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -6984,7 +7039,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>618</v>
+        <v>282</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -6992,7 +7047,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -7000,7 +7055,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -7008,7 +7063,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -7016,7 +7071,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>45</v>
+        <v>750</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -7024,7 +7079,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>751</v>
+        <v>393</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -7032,7 +7087,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>394</v>
+        <v>608</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -7040,7 +7095,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>609</v>
+        <v>156</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -7048,7 +7103,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>157</v>
+        <v>596</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -7056,7 +7111,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>597</v>
+        <v>748</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -7064,7 +7119,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>749</v>
+        <v>537</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -7072,7 +7127,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>538</v>
+        <v>177</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -7080,7 +7135,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>178</v>
+        <v>505</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -7088,7 +7143,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -7096,7 +7151,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>468</v>
+        <v>258</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -7104,7 +7159,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -7112,7 +7167,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>200</v>
+        <v>435</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -7120,7 +7175,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>436</v>
+        <v>531</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -7128,7 +7183,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>532</v>
+        <v>423</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -7136,7 +7191,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>424</v>
+        <v>632</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -7144,7 +7199,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>633</v>
+        <v>496</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -7152,7 +7207,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -7160,7 +7215,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -7168,7 +7223,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>492</v>
+        <v>745</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -7176,7 +7231,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>746</v>
+        <v>657</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -7184,7 +7239,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>658</v>
+        <v>588</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -7192,7 +7247,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>589</v>
+        <v>475</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -7200,7 +7255,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>476</v>
+        <v>337</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -7208,7 +7263,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -7216,7 +7271,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>97</v>
+        <v>453</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -7224,7 +7279,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>454</v>
+        <v>16</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -7232,7 +7287,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -7240,7 +7295,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>208</v>
+        <v>746</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -7248,7 +7303,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>747</v>
+        <v>181</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -7256,7 +7311,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>182</v>
+        <v>691</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -7264,7 +7319,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>692</v>
+        <v>633</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -7272,7 +7327,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>634</v>
+        <v>91</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -7280,7 +7335,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -7288,7 +7343,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>114</v>
+        <v>650</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -7296,7 +7351,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -7304,7 +7359,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>696</v>
+        <v>394</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -7312,7 +7367,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>395</v>
+        <v>575</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -7320,7 +7375,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>576</v>
+        <v>331</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -7328,7 +7383,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>332</v>
+        <v>605</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -7336,7 +7391,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -7344,7 +7399,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>541</v>
+        <v>421</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -7352,7 +7407,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>422</v>
+        <v>777</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -7360,7 +7415,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>778</v>
+        <v>436</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -7368,7 +7423,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>437</v>
+        <v>615</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -7376,7 +7431,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>616</v>
+        <v>398</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -7384,7 +7439,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>399</v>
+        <v>508</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -7392,7 +7447,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -7400,7 +7455,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -7408,7 +7463,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>442</v>
+        <v>227</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -7416,7 +7471,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>228</v>
+        <v>526</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -7424,7 +7479,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>527</v>
+        <v>355</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -7432,7 +7487,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -7440,7 +7495,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>360</v>
+        <v>662</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -7448,7 +7503,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -7456,7 +7511,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>678</v>
+        <v>275</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -7464,7 +7519,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -7472,7 +7527,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -7480,7 +7535,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -7488,7 +7543,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>559</v>
+        <v>314</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -7496,7 +7551,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>315</v>
+        <v>569</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -7504,7 +7559,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -7512,7 +7567,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>201</v>
+        <v>406</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -7520,7 +7575,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>407</v>
+        <v>75</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -7528,7 +7583,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>75</v>
+        <v>780</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -7536,7 +7591,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>781</v>
+        <v>255</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -7544,7 +7599,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>256</v>
+        <v>503</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -7552,7 +7607,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>504</v>
+        <v>305</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -7560,7 +7615,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -7568,7 +7623,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -7576,7 +7631,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -7584,7 +7639,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -7592,7 +7647,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>48</v>
+        <v>577</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -7600,7 +7655,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>578</v>
+        <v>246</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -7608,7 +7663,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>247</v>
+        <v>534</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -7616,7 +7671,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>535</v>
+        <v>637</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -7624,7 +7679,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>638</v>
+        <v>345</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -7632,7 +7687,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -7640,7 +7695,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>670</v>
+        <v>223</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -7648,7 +7703,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>224</v>
+        <v>547</v>
       </c>
       <c r="B604">
         <v>1</v>
@@ -7656,7 +7711,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -7664,7 +7719,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -7672,7 +7727,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -7680,7 +7735,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>594</v>
+        <v>310</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -7688,7 +7743,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>311</v>
+        <v>609</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -7696,7 +7751,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>610</v>
+        <v>133</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -7704,7 +7759,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>134</v>
+        <v>579</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -7712,7 +7767,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>580</v>
+        <v>381</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -7720,7 +7775,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="B613">
         <v>1</v>
@@ -7728,7 +7783,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B614">
         <v>1</v>
@@ -7736,7 +7791,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>240</v>
+        <v>541</v>
       </c>
       <c r="B615">
         <v>1</v>
@@ -7744,7 +7799,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -7752,7 +7807,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>620</v>
+        <v>135</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -7760,7 +7815,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -7768,7 +7823,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -7776,7 +7831,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>317</v>
+        <v>163</v>
       </c>
       <c r="B620">
         <v>1</v>
@@ -7784,7 +7839,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -7792,7 +7847,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -7800,7 +7855,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>275</v>
+        <v>728</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -7808,7 +7863,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>729</v>
+        <v>14</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -7816,7 +7871,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -7824,7 +7879,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -7832,7 +7887,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -7840,7 +7895,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>384</v>
+        <v>32</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -7848,7 +7903,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>32</v>
+        <v>586</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -7856,7 +7911,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>587</v>
+        <v>701</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -7864,7 +7919,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>702</v>
+        <v>426</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -7872,7 +7927,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>427</v>
+        <v>627</v>
       </c>
       <c r="B632">
         <v>1</v>
@@ -7880,7 +7935,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>628</v>
+        <v>47</v>
       </c>
       <c r="B633">
         <v>1</v>
@@ -7888,7 +7943,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>47</v>
+        <v>357</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -7896,7 +7951,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -7904,7 +7959,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -7912,7 +7967,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>531</v>
+        <v>372</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -7920,7 +7975,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>373</v>
+        <v>552</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -7928,7 +7983,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -7936,7 +7991,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>546</v>
+        <v>349</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -7944,7 +7999,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>350</v>
+        <v>585</v>
       </c>
       <c r="B641">
         <v>1</v>
@@ -7952,7 +8007,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>586</v>
+        <v>457</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -7960,7 +8015,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>458</v>
+        <v>706</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -7968,7 +8023,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -7976,7 +8031,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -7984,7 +8039,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>713</v>
+        <v>525</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -7992,7 +8047,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>526</v>
+        <v>353</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -8000,7 +8055,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -8008,7 +8063,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>380</v>
+        <v>468</v>
       </c>
       <c r="B649">
         <v>1</v>
@@ -8016,7 +8071,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>469</v>
+        <v>170</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -8024,7 +8079,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -8032,7 +8087,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -8040,7 +8095,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -8048,7 +8103,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -8056,7 +8111,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B655">
         <v>1</v>
@@ -8064,7 +8119,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>81</v>
+        <v>644</v>
       </c>
       <c r="B656">
         <v>1</v>
@@ -8072,7 +8127,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -8080,7 +8135,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -8088,7 +8143,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>265</v>
+        <v>672</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -8096,7 +8151,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>673</v>
+        <v>263</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -8104,7 +8159,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>264</v>
+        <v>698</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -8112,7 +8167,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -8120,7 +8175,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>718</v>
+        <v>564</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -8128,7 +8183,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>565</v>
+        <v>488</v>
       </c>
       <c r="B664">
         <v>1</v>
@@ -8136,7 +8191,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>489</v>
+        <v>158</v>
       </c>
       <c r="B665">
         <v>1</v>
@@ -8144,7 +8199,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B666">
         <v>1</v>
@@ -8152,7 +8207,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -8160,7 +8215,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -8168,7 +8223,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="B669">
         <v>1</v>
@@ -8176,7 +8231,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="B670">
         <v>1</v>
@@ -8184,7 +8239,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="B671">
         <v>1</v>
@@ -8192,7 +8247,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B672">
         <v>1</v>
@@ -8200,7 +8255,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="B673">
         <v>1</v>
@@ -8208,7 +8263,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>58</v>
+        <v>727</v>
       </c>
       <c r="B674">
         <v>1</v>
@@ -8216,7 +8271,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="B675">
         <v>1</v>
@@ -8224,7 +8279,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>738</v>
+        <v>250</v>
       </c>
       <c r="B676">
         <v>1</v>
@@ -8240,7 +8295,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="B678">
         <v>1</v>
@@ -8248,7 +8303,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>92</v>
+        <v>700</v>
       </c>
       <c r="B679">
         <v>1</v>
@@ -8256,7 +8311,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>701</v>
+        <v>744</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -8264,7 +8319,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>745</v>
+        <v>560</v>
       </c>
       <c r="B681">
         <v>1</v>
@@ -8272,7 +8327,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>561</v>
+        <v>732</v>
       </c>
       <c r="B682">
         <v>1</v>
@@ -8280,7 +8335,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>733</v>
+        <v>190</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -8288,7 +8343,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>191</v>
+        <v>607</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -8296,7 +8351,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>608</v>
+        <v>165</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -8304,7 +8359,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -8312,7 +8367,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>309</v>
+        <v>618</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -8320,7 +8375,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>619</v>
+        <v>762</v>
       </c>
       <c r="B688">
         <v>1</v>
@@ -8328,7 +8383,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>763</v>
+        <v>56</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -8336,7 +8391,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>56</v>
+        <v>396</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -8344,7 +8399,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -8360,7 +8415,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>401</v>
+        <v>606</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -8368,7 +8423,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>607</v>
+        <v>278</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -8376,7 +8431,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>279</v>
+        <v>566</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -8384,7 +8439,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>567</v>
+        <v>268</v>
       </c>
       <c r="B696">
         <v>1</v>
@@ -8392,7 +8447,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>269</v>
+        <v>598</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -8400,7 +8455,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>599</v>
+        <v>76</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -8408,7 +8463,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -8416,7 +8471,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>53</v>
+        <v>660</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -8424,7 +8479,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>661</v>
+        <v>512</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -8432,7 +8487,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>513</v>
+        <v>145</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -8440,7 +8495,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>146</v>
+        <v>388</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -8448,7 +8503,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="B704">
         <v>1</v>
@@ -8456,7 +8511,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>443</v>
+        <v>272</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -8464,7 +8519,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>273</v>
+        <v>127</v>
       </c>
       <c r="B706">
         <v>1</v>
@@ -8472,7 +8527,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="B707">
         <v>1</v>
@@ -8480,7 +8535,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>186</v>
+        <v>356</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -8488,7 +8543,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>357</v>
+        <v>113</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -8496,7 +8551,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -8504,7 +8559,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>305</v>
+        <v>679</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -8512,7 +8567,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>680</v>
+        <v>217</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -8520,7 +8575,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -8528,7 +8583,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>237</v>
+        <v>509</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -8536,7 +8591,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -8544,7 +8599,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>529</v>
+        <v>15</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -8552,7 +8607,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>15</v>
+        <v>584</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -8560,7 +8615,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>585</v>
+        <v>378</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -8568,7 +8623,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B719">
         <v>1</v>
@@ -8576,7 +8631,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>376</v>
+        <v>242</v>
       </c>
       <c r="B720">
         <v>1</v>
@@ -8584,7 +8639,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -8592,7 +8647,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -8600,7 +8655,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>149</v>
+        <v>248</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -8608,7 +8663,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -8616,7 +8671,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -8624,7 +8679,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B726">
         <v>1</v>
@@ -8632,7 +8687,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -8640,7 +8695,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>343</v>
+        <v>721</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -8648,7 +8703,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>722</v>
+        <v>218</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -8656,7 +8711,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>219</v>
+        <v>642</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -8664,7 +8719,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>643</v>
+        <v>86</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -8672,7 +8727,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>86</v>
+        <v>643</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -8680,7 +8735,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>644</v>
+        <v>213</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -8688,7 +8743,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -8696,7 +8751,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -8704,7 +8759,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>229</v>
+        <v>465</v>
       </c>
       <c r="B736">
         <v>1</v>
@@ -8712,7 +8767,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="B737">
         <v>1</v>
@@ -8728,7 +8783,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -8736,7 +8791,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>291</v>
+        <v>433</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -8744,7 +8799,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>434</v>
+        <v>204</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -8752,7 +8807,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>205</v>
+        <v>553</v>
       </c>
       <c r="B742">
         <v>1</v>
@@ -8760,7 +8815,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>554</v>
+        <v>368</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -8768,7 +8823,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -8776,7 +8831,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="B745">
         <v>1</v>
@@ -8784,7 +8839,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>686</v>
+        <v>385</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -8792,7 +8847,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -8800,7 +8855,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="B748">
         <v>1</v>
@@ -8808,7 +8863,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -8816,7 +8871,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>600</v>
+        <v>157</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -8824,7 +8879,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -8832,7 +8887,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -8840,7 +8895,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -8848,7 +8903,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="B754">
         <v>1</v>
@@ -8856,7 +8911,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>187</v>
+        <v>415</v>
       </c>
       <c r="B755">
         <v>1</v>
@@ -8864,7 +8919,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>416</v>
+        <v>742</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -8872,7 +8927,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>743</v>
+        <v>610</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -8880,7 +8935,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -8888,7 +8943,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>725</v>
+        <v>155</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -8896,7 +8951,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="B760">
         <v>1</v>
@@ -8904,7 +8959,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>282</v>
+        <v>570</v>
       </c>
       <c r="B761">
         <v>1</v>
@@ -8912,7 +8967,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -8920,7 +8975,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B763">
         <v>1</v>
@@ -8928,7 +8983,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>557</v>
+        <v>231</v>
       </c>
       <c r="B764">
         <v>1</v>
@@ -8936,7 +8991,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B765">
         <v>1</v>
@@ -8944,7 +8999,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>206</v>
+        <v>720</v>
       </c>
       <c r="B766">
         <v>1</v>
@@ -8952,7 +9007,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>721</v>
+        <v>249</v>
       </c>
       <c r="B767">
         <v>1</v>
@@ -8960,7 +9015,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>250</v>
+        <v>621</v>
       </c>
       <c r="B768">
         <v>1</v>
@@ -8968,7 +9023,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>622</v>
+        <v>235</v>
       </c>
       <c r="B769">
         <v>1</v>
@@ -8976,7 +9031,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="B770">
         <v>1</v>
@@ -8984,7 +9039,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="B771">
         <v>1</v>
@@ -8992,7 +9047,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="B772">
         <v>1</v>
@@ -9000,7 +9055,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="B773">
         <v>1</v>
@@ -9008,7 +9063,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>752</v>
+        <v>141</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -9016,7 +9071,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="B775">
         <v>1</v>
@@ -9024,7 +9079,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>391</v>
+        <v>663</v>
       </c>
       <c r="B776">
         <v>1</v>
@@ -9032,7 +9087,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>664</v>
+        <v>162</v>
       </c>
       <c r="B777">
         <v>1</v>
@@ -9040,7 +9095,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="B778">
         <v>1</v>
@@ -9048,7 +9103,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="B779">
         <v>1</v>
@@ -9056,7 +9111,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>179</v>
+        <v>568</v>
       </c>
       <c r="B780">
         <v>1</v>
@@ -9064,17 +9119,9 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>569</v>
+        <v>240</v>
       </c>
       <c r="B781">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A782" t="s">
-        <v>241</v>
-      </c>
-      <c r="B782">
         <v>1</v>
       </c>
     </row>
@@ -9088,93 +9135,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>787</v>
+      <c r="A6" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A06AD71-BFE0-2442-8B2F-6B7474269866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F469017-0BB9-E843-B811-EB18157A27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="834">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2409,9 +2409,6 @@
     <t xml:space="preserve">BART-TL: Weakly-Supervised Topic Label Generation </t>
   </si>
   <si>
-    <t xml:space="preserve">Bayesian Text Classification and Summarization via A Class-Specified Topic Model </t>
-  </si>
-  <si>
     <t xml:space="preserve">In Search of Coherence and Consensus: Measuring the Interpretability of Statistical Topics </t>
   </si>
   <si>
@@ -2424,9 +2421,6 @@
     <t>Global Surveillance of COVID-19 by mining news media using a multi-source dynamic embedded topic model</t>
   </si>
   <si>
-    <t xml:space="preserve">Anchored Correlation Explanation: Topic Modeling with Minimal Domain Knowledge </t>
-  </si>
-  <si>
     <t xml:space="preserve">Free associations of citizens and scientists with economic and green growth: A computational-linguistics analysis </t>
   </si>
   <si>
@@ -2436,36 +2430,18 @@
     <t xml:space="preserve">Managing the Boundaries of Taste: Culture, Valuation, and Computational Social Science </t>
   </si>
   <si>
-    <t xml:space="preserve">HIGITCLASS: Keyword-Driven Hierarchical Classification of GitHub Repositories </t>
-  </si>
-  <si>
     <t xml:space="preserve">Scientific Evolutionary Pathways: Identifying and Visualizing Relationships for Scientific Topics </t>
   </si>
   <si>
     <t xml:space="preserve">Labeling Topics with Images using a Neural Network </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic Modeling over Short Texts by Incorporating Word Embeddings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distant Supervision for Topic Classification of Tweets in Curated Streams </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discriminative Topic Mining via Category-Name Guided Text Embedding </t>
-  </si>
-  <si>
     <t xml:space="preserve">Full-Text or Abstract? Examining Topic Coherence Scores Using Latent Dirichlet Allocation </t>
   </si>
   <si>
     <t xml:space="preserve">Neural Models for Documents with Metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">Annotating and detecting topics in social media forum and modelling the annotation to derive directions‐a case study </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorporating Wikipedia concepts and categories as prior knowledge into topic models </t>
-  </si>
-  <si>
     <t xml:space="preserve"> W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
   </si>
   <si>
@@ -2476,13 +2452,100 @@
   </si>
   <si>
     <t xml:space="preserve">Detecting and predicting the topic change of Knowledge-based Systems: A topic-based bibliometric analysis from 1991 to 2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applying LDA topic modeling in communication research: Toward a valid and reliable methodology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Politics of Scrutiny in Human Rights Monitoring: Evidence from Structural Topic Models of US State Department Human Rights Reports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narratives of the Refugee Crisis: A Comparative Study of Mainstream-Media and Twitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaxoGen: Unsupervised Topic Taxonomy Construction by Adaptive Term Embedding and Clustering </t>
+  </si>
+  <si>
+    <t>Transactions of the Association for Computational Linguistics</t>
+  </si>
+  <si>
+    <t>Journal of the Association for Information Science and Technology</t>
+  </si>
+  <si>
+    <t>Natural Language Processing and Information Systems</t>
+  </si>
+  <si>
+    <t>EACL</t>
+  </si>
+  <si>
+    <t>Research &amp; Politics</t>
+  </si>
+  <si>
+    <t>NAACL</t>
+  </si>
+  <si>
+    <t>SIGIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Information Processing Systems </t>
+  </si>
+  <si>
+    <t>BCB</t>
+  </si>
+  <si>
+    <t>Ecological Economics</t>
+  </si>
+  <si>
+    <t>SBSI</t>
+  </si>
+  <si>
+    <t>Social Forces</t>
+  </si>
+  <si>
+    <t>DSAA</t>
+  </si>
+  <si>
+    <t>ECIR</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>Expert Systems With Applications</t>
+  </si>
+  <si>
+    <t>Expert Systems with Applications</t>
+  </si>
+  <si>
+    <t>Social Network Analysis and Mining</t>
+  </si>
+  <si>
+    <t>Knowledge-Based Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication Methods and Measures </t>
+  </si>
+  <si>
+    <t>Political Science Research and Methods</t>
+  </si>
+  <si>
+    <t>Media and Communication</t>
+  </si>
+  <si>
+    <t>KDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation Research Part C </t>
+  </si>
+  <si>
+    <t>The Journal of Machine Learning Research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2494,13 +2557,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2544,13 +2600,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2867,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAF4386-DCD1-C147-B151-A67CD8E190EB}">
   <dimension ref="A1:B781"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I424" sqref="I424"/>
     </sheetView>
   </sheetViews>
@@ -9135,15 +9192,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="108.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -9155,161 +9213,229 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>783</v>
       </c>
+      <c r="B2" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>784</v>
       </c>
+      <c r="B3" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>785</v>
+      </c>
+      <c r="B4" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="B5" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>786</v>
+      </c>
+      <c r="B6" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>787</v>
       </c>
+      <c r="B7" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>788</v>
       </c>
+      <c r="B8" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>789</v>
       </c>
+      <c r="B9" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>790</v>
       </c>
+      <c r="B10" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>791</v>
       </c>
+      <c r="B11" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>792</v>
       </c>
+      <c r="B12" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>793</v>
       </c>
+      <c r="B13" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>794</v>
+      </c>
+      <c r="B14" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>795</v>
       </c>
+      <c r="B15" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="B16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B18" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="B19" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B21" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B22" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B23" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="B24" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B25" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B26" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B27" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>812</v>
-      </c>
+      <c r="B28" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E28">
+    <sortCondition ref="E2:E28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F469017-0BB9-E843-B811-EB18157A27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861FAC9-43FD-4E4C-A148-18F5C927A0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
-    <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Selection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="857">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2539,6 +2539,75 @@
   </si>
   <si>
     <t>The Journal of Machine Learning Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topically Driven Neural Language Model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towards Autoencoding Variational Inference for Aspect-based Opinion Summary </t>
+  </si>
+  <si>
+    <t>Applied Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>EMNLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelling Research Topic Trends in Community Forestry </t>
+  </si>
+  <si>
+    <t>Small-scale Forestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measuring service quality from unstructured data: A topic modeling application on airline passengers’ online reviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter speaks: A case of national disaster situational awareness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Information Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toward understanding 17th century English culture: A structural topic model of Francis Bacon's ideas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Comparative Economics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Are MOOCs Learners’ Concerns? Text Analysis of Reviews for Computer Science Courses </t>
+  </si>
+  <si>
+    <t>DASFAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterizing diabetes, diet, exercise, and obesity comments on Twitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Information Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifying topical influencers on twitter based on user behavior and network topology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comparative analysis of major online review platforms: Implications for social media analytics in hospitality and tourism </t>
+  </si>
+  <si>
+    <t>Tourism Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Investigation of Brand-Related User-Generated Content on Twitter </t>
+  </si>
+  <si>
+    <t>Journal of Advertising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyst Information Discovery and Interpretation Roles: A Topic Modeling Approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management Science </t>
   </si>
 </sst>
 </file>
@@ -2600,14 +2669,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2925,7 +2992,7 @@
   <dimension ref="A1:B781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I424" sqref="I424"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9192,10 +9259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9333,7 +9400,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>797</v>
       </c>
       <c r="B17" t="s">
@@ -9429,11 +9496,128 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B29" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B30" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B32" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B34" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B35" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B36" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B37" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B38" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B39" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B40" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B41" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B42" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="B43" t="s">
+        <v>856</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E28">
-    <sortCondition ref="E2:E28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:A93">
+    <sortCondition ref="A52:A93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3861FAC9-43FD-4E4C-A148-18F5C927A0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A5E8E-EBCF-AF4B-89E9-9E30416A9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
@@ -9262,7 +9262,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289A5E8E-EBCF-AF4B-89E9-9E30416A9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C6B6F-355B-AC45-B13F-FBE109315578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16320" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -2442,9 +2442,6 @@
     <t xml:space="preserve">Neural Models for Documents with Metadata </t>
   </si>
   <si>
-    <t xml:space="preserve"> W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
-  </si>
-  <si>
     <t xml:space="preserve">Document-based topic coherence measures for news media text </t>
   </si>
   <si>
@@ -2589,9 +2586,6 @@
     <t xml:space="preserve">International Journal of Information Management </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifying topical influencers on twitter based on user behavior and network topology </t>
-  </si>
-  <si>
     <t xml:space="preserve">A comparative analysis of major online review platforms: Implications for social media analytics in hospitality and tourism </t>
   </si>
   <si>
@@ -2608,6 +2602,12 @@
   </si>
   <si>
     <t xml:space="preserve">Management Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying topical influencers on twitter based on user behavior and network topology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
   </si>
 </sst>
 </file>
@@ -9261,8 +9261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9281,50 +9281,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>783</v>
+        <v>849</v>
       </c>
       <c r="B2" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>784</v>
+      <c r="A3" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>810</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>785</v>
+        <v>851</v>
       </c>
       <c r="B4" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>123</v>
+      <c r="A5" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="B5" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>786</v>
+        <v>853</v>
       </c>
       <c r="B6" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>787</v>
+      <c r="A7" s="4" t="s">
+        <v>804</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9332,7 +9332,7 @@
         <v>788</v>
       </c>
       <c r="B8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9340,284 +9340,284 @@
         <v>789</v>
       </c>
       <c r="B9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>790</v>
+      <c r="A10" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="B10" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>791</v>
+      <c r="A11" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="B11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>792</v>
+      <c r="A12" s="2" t="s">
+        <v>803</v>
       </c>
       <c r="B12" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>793</v>
+      <c r="A13" s="2" t="s">
+        <v>801</v>
       </c>
       <c r="B13" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B14" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B15" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B16" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B17" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>798</v>
+      <c r="A18" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="B18" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>799</v>
+      <c r="A19" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>800</v>
+      <c r="A20" s="4" t="s">
+        <v>855</v>
       </c>
       <c r="B20" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>801</v>
+      <c r="A21" s="3" t="s">
+        <v>790</v>
       </c>
       <c r="B21" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B22" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B23" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>804</v>
+        <v>839</v>
       </c>
       <c r="B24" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="B25" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>806</v>
+      <c r="A26" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B28" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>834</v>
+      <c r="A29" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="B29" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>835</v>
+      <c r="A30" s="4" t="s">
+        <v>797</v>
       </c>
       <c r="B30" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>807</v>
       </c>
       <c r="B31" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="B32" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>229</v>
+        <v>787</v>
       </c>
       <c r="B33" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>840</v>
+      <c r="A34" s="4" t="s">
+        <v>802</v>
       </c>
       <c r="B34" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B35" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B36" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>844</v>
+      <c r="A37" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="B37" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>846</v>
+        <v>786</v>
       </c>
       <c r="B38" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B39" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>850</v>
+        <v>785</v>
       </c>
       <c r="B40" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>851</v>
+        <v>791</v>
       </c>
       <c r="B41" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>853</v>
+      <c r="A42" s="2" t="s">
+        <v>856</v>
       </c>
       <c r="B42" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B43" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:A93">
-    <sortCondition ref="A52:A93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+    <sortCondition ref="A2:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C6B6F-355B-AC45-B13F-FBE109315578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF3080-F9DA-0F4E-B16D-6E77F1A7FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16320" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="858">
   <si>
     <t>Nonparametric Bayesian Negative Binomial Factor Analysis</t>
   </si>
@@ -2608,6 +2608,9 @@
   </si>
   <si>
     <t xml:space="preserve">W2VLDA: Almost unsupervised system for Aspect Based Sentiment Analysis </t>
+  </si>
+  <si>
+    <t>26 papers</t>
   </si>
 </sst>
 </file>
@@ -9259,10 +9262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD70180-5A7E-ED48-A7A6-47E03F6FAE12}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A43"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9271,15 +9274,18 @@
     <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>849</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>99</v>
       </c>
@@ -9295,7 +9301,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>851</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>792</v>
       </c>
@@ -9311,7 +9317,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>853</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>804</v>
       </c>
@@ -9327,7 +9333,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>788</v>
       </c>
@@ -9335,7 +9341,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>789</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>847</v>
       </c>
@@ -9351,7 +9357,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>840</v>
       </c>
@@ -9359,7 +9365,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>803</v>
       </c>
@@ -9367,7 +9373,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>801</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>784</v>
       </c>
@@ -9383,7 +9389,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>783</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>794</v>
       </c>

--- a/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFF3080-F9DA-0F4E-B16D-6E77F1A7FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD14517-C63D-FD43-8754-25FB0C3C8273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
